--- a/Documentação/Planilhas/Layouts/Relatorio_Follow.xlsx
+++ b/Documentação/Planilhas/Layouts/Relatorio_Follow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
   <si>
     <t>Campo</t>
   </si>
@@ -96,18 +96,9 @@
     <t>Valor do Produto</t>
   </si>
   <si>
-    <t>MIS_MIGRACAO</t>
-  </si>
-  <si>
     <t>CD_ITEM</t>
   </si>
   <si>
-    <t>stg_nfr_rascunho_cab</t>
-  </si>
-  <si>
-    <t>stg_nfr_rascunho_det</t>
-  </si>
-  <si>
     <t>NR_PEDIDO_COMPRA + CD_ITEM</t>
   </si>
   <si>
@@ -120,16 +111,9 @@
     <t>QT_RECEBIMENTO</t>
   </si>
   <si>
-    <t>VL_TOTAL_ITEM</t>
-  </si>
-  <si>
     <t>Identifica a situação da análise do rascunho através da sua descrição. Ex: Agendado, NF com erro, etc</t>
   </si>
   <si>
-    <t>CD_SITUACAO_RASCUNHO 
-[Exceto os Recebidos]</t>
-  </si>
-  <si>
     <t>[com].[stg_follow_compra]</t>
   </si>
   <si>
@@ -223,12 +207,6 @@
     <t>nr_inedoneo</t>
   </si>
   <si>
-    <t>stg_nfr_det</t>
-  </si>
-  <si>
-    <t>stg_nfr_cab</t>
-  </si>
-  <si>
     <t>Identifica o Fornecedor através do seu CPF ou CNPJ completo, sem qualquer separador. Ex: 2588717000121, etc</t>
   </si>
   <si>
@@ -259,33 +237,9 @@
     <t>Identifica o Departamento do Produto através da sua descrição. Ex: Livros, etc</t>
   </si>
   <si>
-    <t>Identifica a data e hora da emissão da Nota Fiscal</t>
-  </si>
-  <si>
     <t>Identifica a data e hora da emissão da Entrega</t>
   </si>
   <si>
-    <t>Quantidade de SKU's liquidados ????</t>
-  </si>
-  <si>
-    <t>Valor dos SKU's liquidados ????</t>
-  </si>
-  <si>
-    <t>Quantidade de SKU's em saldo ????</t>
-  </si>
-  <si>
-    <t>Valor dos SKU's em saldo ????</t>
-  </si>
-  <si>
-    <t>Valor unitário do SKU no pedido ????</t>
-  </si>
-  <si>
-    <t>Quantidade Total de SKU's no pedido ????</t>
-  </si>
-  <si>
-    <t>Valor Total do Pedido ????</t>
-  </si>
-  <si>
     <t>Identifica a geração do pedido através da sua descrição. Ex: AMOSTRA GRÁTIS, IMPORTAÇÃO, CONSIGNAÇÃO, etc</t>
   </si>
   <si>
@@ -304,9 +258,6 @@
     <t>Identifica a curva ABC do fornecedor (???)  através do seu código. Ex: A, B, C, etc</t>
   </si>
   <si>
-    <t>Identifica a observação realizada</t>
-  </si>
-  <si>
     <t>Identifica a Data de Inclusão (???) no formato AAAA-MM-DD</t>
   </si>
   <si>
@@ -322,46 +273,169 @@
     <t>Identifica o pedido inedoneo (???) através do seu código. Ex: 1, 2, etc</t>
   </si>
   <si>
-    <t>CD_FORNECEDOR</t>
-  </si>
-  <si>
     <t>CD_FILIAL</t>
   </si>
   <si>
     <t>NR_PEDIDO_COMPRA</t>
   </si>
   <si>
-    <t>CD_ITEM 
-[Pegar DS_ITEM da stg_sku]</t>
-  </si>
-  <si>
-    <t>CD_ITEM 
-[Pegar NR_CNPJ_FABRICANTE  da stg_sku]</t>
-  </si>
-  <si>
-    <t>CD_ITEM 
-[Pegar NM_NOME_FABRICANTE  da stg_sku]</t>
-  </si>
-  <si>
-    <t>DT_EMISSAO_NF_RECEBIDA</t>
-  </si>
-  <si>
-    <t>DT_EMISSAO_NFR</t>
-  </si>
-  <si>
-    <t>DT_SAIDA_NF_RECEBIDA</t>
-  </si>
-  <si>
-    <t>DS_OBSERVACAO_NFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CD_NATUREZA_OPERACAO</t>
-  </si>
-  <si>
-    <t>CD_SITUACAO_NFR</t>
-  </si>
-  <si>
     <t>CD_CONDICAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>QT_PEDIDO</t>
+  </si>
+  <si>
+    <t>VL_UNITARIO_ATUAL_ITEM</t>
+  </si>
+  <si>
+    <t>QT_PEDIDO * VL_UNITARIO_ATUAL_ITEM</t>
+  </si>
+  <si>
+    <t>CD_NATUREZA_OPERACAO</t>
+  </si>
+  <si>
+    <t>DT_CRIACAO</t>
+  </si>
+  <si>
+    <t>DS_USUARIO_GERACAO_PEDIDO</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>ln.ods_pec_cab</t>
+  </si>
+  <si>
+    <t>VL_UNITARIO_ATUAL_ITEM *
+   (QT_PEDIDO - QT_ENTREGUE - QT_CANCELADA - QT_LIQUIDADA)</t>
+  </si>
+  <si>
+    <t>DS_SITUACAO_RASCUNHO</t>
+  </si>
+  <si>
+    <t>ln.ods_pec_det</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido de Compra através do seu número [campo auxiliar para a composição da chave]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR_PEDIDO_COMPRA </t>
+  </si>
+  <si>
+    <t>Identifica o Item através do seu código [campo auxiliar para a composição da chave]</t>
+  </si>
+  <si>
+    <t>ln.ods_nfr_rascunho_det</t>
+  </si>
+  <si>
+    <t>ln.ods_nfr_rascunho_cab</t>
+  </si>
+  <si>
+    <t>ln.ods_dom_nfe_status_rascunho</t>
+  </si>
+  <si>
+    <t>Valor unitário atual do item  [campo auxiliar para a composição do VL_SALDO]</t>
+  </si>
+  <si>
+    <t>MIS_SHARED_DIMENSION</t>
+  </si>
+  <si>
+    <t>dim.ods_parceiro_cadastro</t>
+  </si>
+  <si>
+    <t>nr_cnpj_cpf</t>
+  </si>
+  <si>
+    <t>ds_parceiro</t>
+  </si>
+  <si>
+    <t>dim.ods_produto</t>
+  </si>
+  <si>
+    <t>ds_product</t>
+  </si>
+  <si>
+    <t>ds_fabricante_cnpj</t>
+  </si>
+  <si>
+    <t>nr_depto</t>
+  </si>
+  <si>
+    <t>QT_CANCELADA + 
+QT_LIQUIDADA</t>
+  </si>
+  <si>
+    <t>(QT_CANCELADA + QT_LIQUIDADA) * VL_UNITARIO_ATUAL_ITEM</t>
+  </si>
+  <si>
+    <t>Quantidade de SKU's liquidados</t>
+  </si>
+  <si>
+    <t>Valor dos SKU's liquidados</t>
+  </si>
+  <si>
+    <t>QT_PEDIDO - QT_ENTREGUE - QT_LIQUIDADA - QT_CANCELADA</t>
+  </si>
+  <si>
+    <t>Quantidade de SKU's em saldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(QT_PEDIDO - QT_ENTREGUE - QT_LIQUIDADA - QT_CANCELADA) * VL_UNITARIO_ATUAL_ITEM </t>
+  </si>
+  <si>
+    <t>Valor dos SKU's em saldo</t>
+  </si>
+  <si>
+    <t>Identifica a data e hora da emissão do Pedido</t>
+  </si>
+  <si>
+    <t>Valor unitário do SKU no pedido</t>
+  </si>
+  <si>
+    <t>Quantidade Total de SKU's no pedido</t>
+  </si>
+  <si>
+    <t>Valor Total do Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT_EMISSAO_PEDIDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT_ENTREGA </t>
+  </si>
+  <si>
+    <t>ln.ods_dom_pec_tipo_ordem_compra</t>
+  </si>
+  <si>
+    <t>DS_TIPO_ORDEM</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_PEDIDO &lt;&gt; 25 [Fechado] then 'Liquidado' else 'Aberto' end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case 
+  when QT_ENTREGUE = 0 then 'Sem Rec.'
+  when QT_ENTREGUE = QT_PEDIDO then 'Rec.Total'
+  else 'Rec.Parcial'
+ end</t>
+  </si>
+  <si>
+    <t>DS_OBSERVACAO_PEDIDO</t>
+  </si>
+  <si>
+    <t>Identifica a observação realizada para o pedido</t>
+  </si>
+  <si>
+    <t>stg_dom_condicao_pagamento</t>
+  </si>
+  <si>
+    <t>MIS_LN</t>
+  </si>
+  <si>
+    <t>DS_CONDICAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>in_idoneo</t>
   </si>
 </sst>
 </file>
@@ -413,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -652,6 +726,32 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -662,7 +762,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,6 +817,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,26 +1430,26 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="35.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="7" width="26.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1"/>
-    <row r="2" spans="1:4" ht="18" customHeight="1"/>
-    <row r="3" spans="1:4" ht="18" customHeight="1"/>
-    <row r="4" spans="1:4" ht="18" customHeight="1"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1"/>
-    <row r="6" spans="1:4">
+    <row r="1" spans="1:7" ht="18" customHeight="1"/>
+    <row r="2" spans="1:7" ht="18" customHeight="1"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1"/>
+    <row r="4" spans="1:7" ht="18" customHeight="1"/>
+    <row r="5" spans="1:7" ht="18" customHeight="1"/>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1372,23 +1481,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
       <c r="C12" s="23" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="35.1" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35.1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1396,85 +1514,160 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="51">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1486,27 +1679,29 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="27.42578125" style="7" customWidth="1"/>
+    <col min="4" max="8" width="26.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1"/>
-    <row r="2" spans="1:4" ht="18" customHeight="1"/>
-    <row r="3" spans="1:4" ht="18" customHeight="1"/>
-    <row r="4" spans="1:4" ht="18" customHeight="1"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1"/>
-    <row r="6" spans="1:4">
+    <row r="1" spans="1:8" ht="18" customHeight="1"/>
+    <row r="2" spans="1:8" ht="18" customHeight="1"/>
+    <row r="3" spans="1:8" ht="18" customHeight="1"/>
+    <row r="4" spans="1:8" ht="18" customHeight="1"/>
+    <row r="5" spans="1:8" ht="18" customHeight="1"/>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1530,31 +1725,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" customHeight="1">
       <c r="C12" s="23" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="35.1" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1562,365 +1769,540 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.5">
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="38.25">
+      <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="B25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="59.25" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1">
-      <c r="A29" s="11" t="s">
+      <c r="B33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="48.75" customHeight="1">
+      <c r="A34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="95.25" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="25.5">
+      <c r="A43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1">
-      <c r="A40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="B43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1">
+      <c r="C44" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C44:D44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Documentação/Planilhas/Layouts/Relatorio_Follow.xlsx
+++ b/Documentação/Planilhas/Layouts/Relatorio_Follow.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="88" r:id="rId1"/>
     <sheet name="stg_follow_rascunho" sheetId="95" r:id="rId2"/>
     <sheet name="stg_follow_compra" sheetId="99" r:id="rId3"/>
+    <sheet name="stg_follow_kit_sige" sheetId="100" r:id="rId4"/>
+    <sheet name="ods_follow" sheetId="102" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="166">
   <si>
     <t>Campo</t>
   </si>
@@ -99,27 +101,12 @@
     <t>CD_ITEM</t>
   </si>
   <si>
-    <t>NR_PEDIDO_COMPRA + CD_ITEM</t>
-  </si>
-  <si>
-    <t>NR_NF_RASCUNHO</t>
-  </si>
-  <si>
-    <t>NR_NF_REFERENCIA</t>
-  </si>
-  <si>
-    <t>QT_RECEBIMENTO</t>
-  </si>
-  <si>
     <t>Identifica a situação da análise do rascunho através da sua descrição. Ex: Agendado, NF com erro, etc</t>
   </si>
   <si>
     <t>[com].[stg_follow_compra]</t>
   </si>
   <si>
-    <t>N:\Migracao\Relatorio Follow\Relatorio Follow\stg_follow_ln.dtsx</t>
-  </si>
-  <si>
     <t>nr_id_fornecedor</t>
   </si>
   <si>
@@ -258,9 +245,6 @@
     <t>Identifica a curva ABC do fornecedor (???)  através do seu código. Ex: A, B, C, etc</t>
   </si>
   <si>
-    <t>Identifica a Data de Inclusão (???) no formato AAAA-MM-DD</t>
-  </si>
-  <si>
     <t>Identifica o usuário responsável pela inclusão através do seu login. Ex: evertons, carlosl, etc</t>
   </si>
   <si>
@@ -273,55 +257,24 @@
     <t>Identifica o pedido inedoneo (???) através do seu código. Ex: 1, 2, etc</t>
   </si>
   <si>
-    <t>CD_FILIAL</t>
-  </si>
-  <si>
     <t>NR_PEDIDO_COMPRA</t>
   </si>
   <si>
-    <t>CD_CONDICAO_PAGAMENTO</t>
-  </si>
-  <si>
-    <t>QT_PEDIDO</t>
-  </si>
-  <si>
     <t>VL_UNITARIO_ATUAL_ITEM</t>
   </si>
   <si>
-    <t>QT_PEDIDO * VL_UNITARIO_ATUAL_ITEM</t>
-  </si>
-  <si>
-    <t>CD_NATUREZA_OPERACAO</t>
-  </si>
-  <si>
-    <t>DT_CRIACAO</t>
-  </si>
-  <si>
-    <t>DS_USUARIO_GERACAO_PEDIDO</t>
-  </si>
-  <si>
     <t>MIS_ODS</t>
   </si>
   <si>
     <t>ln.ods_pec_cab</t>
   </si>
   <si>
-    <t>VL_UNITARIO_ATUAL_ITEM *
-   (QT_PEDIDO - QT_ENTREGUE - QT_CANCELADA - QT_LIQUIDADA)</t>
-  </si>
-  <si>
-    <t>DS_SITUACAO_RASCUNHO</t>
-  </si>
-  <si>
     <t>ln.ods_pec_det</t>
   </si>
   <si>
     <t>Identifica o Pedido de Compra através do seu número [campo auxiliar para a composição da chave]</t>
   </si>
   <si>
-    <t xml:space="preserve">NR_PEDIDO_COMPRA </t>
-  </si>
-  <si>
     <t>Identifica o Item através do seu código [campo auxiliar para a composição da chave]</t>
   </si>
   <si>
@@ -343,46 +296,18 @@
     <t>dim.ods_parceiro_cadastro</t>
   </si>
   <si>
-    <t>nr_cnpj_cpf</t>
-  </si>
-  <si>
-    <t>ds_parceiro</t>
-  </si>
-  <si>
     <t>dim.ods_produto</t>
   </si>
   <si>
-    <t>ds_product</t>
-  </si>
-  <si>
-    <t>ds_fabricante_cnpj</t>
-  </si>
-  <si>
-    <t>nr_depto</t>
-  </si>
-  <si>
-    <t>QT_CANCELADA + 
-QT_LIQUIDADA</t>
-  </si>
-  <si>
-    <t>(QT_CANCELADA + QT_LIQUIDADA) * VL_UNITARIO_ATUAL_ITEM</t>
-  </si>
-  <si>
     <t>Quantidade de SKU's liquidados</t>
   </si>
   <si>
     <t>Valor dos SKU's liquidados</t>
   </si>
   <si>
-    <t>QT_PEDIDO - QT_ENTREGUE - QT_LIQUIDADA - QT_CANCELADA</t>
-  </si>
-  <si>
     <t>Quantidade de SKU's em saldo</t>
   </si>
   <si>
-    <t xml:space="preserve">(QT_PEDIDO - QT_ENTREGUE - QT_LIQUIDADA - QT_CANCELADA) * VL_UNITARIO_ATUAL_ITEM </t>
-  </si>
-  <si>
     <t>Valor dos SKU's em saldo</t>
   </si>
   <si>
@@ -398,31 +323,9 @@
     <t>Valor Total do Pedido</t>
   </si>
   <si>
-    <t xml:space="preserve">DT_EMISSAO_PEDIDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT_ENTREGA </t>
-  </si>
-  <si>
     <t>ln.ods_dom_pec_tipo_ordem_compra</t>
   </si>
   <si>
-    <t>DS_TIPO_ORDEM</t>
-  </si>
-  <si>
-    <t>CD_SITUACAO_PEDIDO &lt;&gt; 25 [Fechado] then 'Liquidado' else 'Aberto' end</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> case 
-  when QT_ENTREGUE = 0 then 'Sem Rec.'
-  when QT_ENTREGUE = QT_PEDIDO then 'Rec.Total'
-  else 'Rec.Parcial'
- end</t>
-  </si>
-  <si>
-    <t>DS_OBSERVACAO_PEDIDO</t>
-  </si>
-  <si>
     <t>Identifica a observação realizada para o pedido</t>
   </si>
   <si>
@@ -432,10 +335,187 @@
     <t>MIS_LN</t>
   </si>
   <si>
-    <t>DS_CONDICAO_PAGAMENTO</t>
-  </si>
-  <si>
-    <t>in_idoneo</t>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Tabela Origem</t>
+  </si>
+  <si>
+    <t>nr_kit_sige</t>
+  </si>
+  <si>
+    <t>nr_item_sku</t>
+  </si>
+  <si>
+    <t>[com].[stg_follow_kit_sige]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica o Kit através do seu código. Ex: 8797, 8799, etc</t>
+  </si>
+  <si>
+    <t>stg_dom_sku_kit</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_follow]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Relatorio Follow LN\Relatorio Follow\ods_follow.dtsx</t>
+  </si>
+  <si>
+    <t>ds_cod_fornecedor</t>
+  </si>
+  <si>
+    <t>ds_ean</t>
+  </si>
+  <si>
+    <t>qtd_estoque</t>
+  </si>
+  <si>
+    <t>ds_cobertura</t>
+  </si>
+  <si>
+    <t>ds_prioridade</t>
+  </si>
+  <si>
+    <t>ds_rascunho_consolidado</t>
+  </si>
+  <si>
+    <t>ds_nf_consolidado</t>
+  </si>
+  <si>
+    <t>ds_saldo_si_consolidado</t>
+  </si>
+  <si>
+    <t>nr_soma_rascunho</t>
+  </si>
+  <si>
+    <t>ds_quantidade_consolidado</t>
+  </si>
+  <si>
+    <t>ds_kit</t>
+  </si>
+  <si>
+    <t>vl_cmv_unitario</t>
+  </si>
+  <si>
+    <t>nr_qtd_divergencia</t>
+  </si>
+  <si>
+    <t>ds_atraso</t>
+  </si>
+  <si>
+    <t>vl_preco_custo</t>
+  </si>
+  <si>
+    <t>vl_divergencia_custo</t>
+  </si>
+  <si>
+    <t>ds_ok_fiscal</t>
+  </si>
+  <si>
+    <t>ds_sku_produzido</t>
+  </si>
+  <si>
+    <t>Identifica o SKU do Fornecedor através do seu código. Ex: EESP0016, CHA201843, etc</t>
+  </si>
+  <si>
+    <t>Identifica o código EAN do produto. Ex: 7899441120704, 7899441124900, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data e hora da Entrega</t>
+  </si>
+  <si>
+    <t>Quantidade em estoque do produto</t>
+  </si>
+  <si>
+    <t>Identifica a cobertura do produto. Ex: ,041904 ; 21,394068 ; S/Venda</t>
+  </si>
+  <si>
+    <t>Identifica a prioridade da compra através do seu código. Ex: 1,2, Estoque Zerado, etc</t>
+  </si>
+  <si>
+    <t>Identifica o rascunho consolidado através dos seus códigos. Ex: 18193747, 18381817_18438284, etc</t>
+  </si>
+  <si>
+    <t>Identifica a situação da análise através do seu código. Ex: I, V, etc</t>
+  </si>
+  <si>
+    <t>Identifica as Notas consolidadas através do seu número. Ex: 100151, 100151_100506, 10022, etc</t>
+  </si>
+  <si>
+    <t>Identifica ???? Através do seu valor. Ex: 100,8 ; 100,8_100,8_100,8 ; 100,97; etc</t>
+  </si>
+  <si>
+    <t>Identifica ???? Através do seu valor. Ex: 2249 ; 2400 ; 2584; etc</t>
+  </si>
+  <si>
+    <t>Identifica a Quantidade consolidada. Ex: 1_107_35_35_251_186_2 ; 1_282_282 ; 1_25 ; etc</t>
+  </si>
+  <si>
+    <t>Identifica o Kit através do seu código. Ex: 2941952, 3786642 ; 2991122, 3069744 ; 2953080 ; etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através do seu código. Ex: 13, 29, 30, 37, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento do Produto através da sua descrição. Ex: Bebês, Brinquedos, etc</t>
+  </si>
+  <si>
+    <t>Identifica o fabricante através da sua descrição. Ex: 3M DO BRASIL LTDA, 5I COMERCIO DE AR CONDICIONADO, etc</t>
+  </si>
+  <si>
+    <t>Identifica a geração do pedido através da sua descrição. Ex: Automatico, Manual, Modalidade, Ressuprimento, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data de Inclusão do pedido no formato AAAA-MM-DD</t>
+  </si>
+  <si>
+    <t>Valor do custo unitário da mercadoria</t>
+  </si>
+  <si>
+    <t>Quantidade em divergência do produto</t>
+  </si>
+  <si>
+    <t>Identifica o atraso na entrega do produto através da sua descrição. Ex: ACIMA DE 60 DIAS, ATÉ 15 DIAS, PROGRAMAÇÃO, etc</t>
+  </si>
+  <si>
+    <t>Valor do Preço de Custo do Produto</t>
+  </si>
+  <si>
+    <t>Valor da Divergência de Custo do Produto</t>
+  </si>
+  <si>
+    <t>Identifica o Ok fiscal do produto. Ex: S, N</t>
+  </si>
+  <si>
+    <t>Identifica se o SKU foi produzido. Ex: Sim, Não</t>
+  </si>
+  <si>
+    <t>com.stg_follow_compra</t>
+  </si>
+  <si>
+    <t>com.stg_follow_rascunho</t>
+  </si>
+  <si>
+    <t>vw_report_planilhao_ruptura</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>stg_follow_rascunho</t>
+  </si>
+  <si>
+    <t>stg_follow_compra</t>
+  </si>
+  <si>
+    <t>stg_follow_kit_sige</t>
+  </si>
+  <si>
+    <t>ods_follow</t>
   </si>
 </sst>
 </file>
@@ -487,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -726,32 +806,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -762,7 +816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -779,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -812,20 +863,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,55 +904,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1590675" y="1114425"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4943475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CaixaDeTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8324850" y="238125"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -996,6 +986,96 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1327,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A3:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1339,87 +1419,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="18"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="14" t="str">
+        <f>stg_follow_rascunho!B10</f>
+        <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</v>
+      </c>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="14" t="str">
+        <f>stg_follow_compra!B10</f>
+        <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</v>
+      </c>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="18"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>stg_follow_kit_sige!B10</f>
+        <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</v>
+      </c>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>ods_follow!B10</f>
+        <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\ods_follow.dtsx</v>
+      </c>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="18"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="stg_follow_rascunho!A1" display="stg_follow_rascunho"/>
+    <hyperlink ref="B4" location="stg_follow_compra!A1" display="stg_follow_compra"/>
+    <hyperlink ref="B5" location="stg_follow_kit_sige!A1" display="stg_follow_kit_sige"/>
+    <hyperlink ref="B6" location="ods_follow!A1" display="ods_follow"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1430,26 +1536,26 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="26.7109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1"/>
-    <row r="2" spans="1:7" ht="18" customHeight="1"/>
-    <row r="3" spans="1:7" ht="18" customHeight="1"/>
-    <row r="4" spans="1:7" ht="18" customHeight="1"/>
-    <row r="5" spans="1:7" ht="18" customHeight="1"/>
-    <row r="6" spans="1:7">
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1481,193 +1587,134 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29.25" customHeight="1">
-      <c r="C12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="D13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="D17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="11" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C16:D16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1679,29 +1726,406 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A13" sqref="A13"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="7" customWidth="1"/>
-    <col min="4" max="8" width="26.7109375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1"/>
-    <row r="2" spans="1:8" ht="18" customHeight="1"/>
-    <row r="3" spans="1:8" ht="18" customHeight="1"/>
-    <row r="4" spans="1:8" ht="18" customHeight="1"/>
-    <row r="5" spans="1:8" ht="18" customHeight="1"/>
-    <row r="6" spans="1:8">
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +2133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1725,584 +2149,595 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.25" customHeight="1">
-      <c r="C12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="35.1" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25.5">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="B14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="25.5">
-      <c r="A15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="D15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="8"/>
+    </row>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="11" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" customHeight="1">
+      <c r="A58" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="38.25">
-      <c r="A25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="59.25" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" ht="95.25" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1">
-      <c r="A40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1">
-      <c r="A41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" ht="25.5">
-      <c r="A43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1">
-      <c r="A44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="B61" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C44:D44"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Documentação/Planilhas/Layouts/Relatorio_Follow.xlsx
+++ b/Documentação/Planilhas/Layouts/Relatorio_Follow.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
   <si>
     <t>Campo</t>
   </si>
@@ -506,23 +506,14 @@
     <t>MIS_RELATORIO</t>
   </si>
   <si>
-    <t>stg_follow_rascunho</t>
-  </si>
-  <si>
-    <t>stg_follow_compra</t>
-  </si>
-  <si>
-    <t>stg_follow_kit_sige</t>
-  </si>
-  <si>
-    <t>ods_follow</t>
+    <t>BANCO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +543,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -567,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -752,32 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -800,12 +777,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -846,26 +842,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1405,119 +1405,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="29" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="14" t="str">
+    <row r="3" spans="2:5">
+      <c r="B3" s="16" t="str">
+        <f>stg_follow_rascunho!B9</f>
+        <v>[com].[stg_follow_rascunho]</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>stg_follow_rascunho!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="22" t="str">
         <f>stg_follow_rascunho!B10</f>
         <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="14" t="str">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="16" t="str">
+        <f>stg_follow_compra!B9</f>
+        <v>[com].[stg_follow_compra]</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>stg_follow_compra!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D4" s="22" t="str">
         <f>stg_follow_compra!B10</f>
         <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="17" t="s">
-        <v>164</v>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="16" t="str">
+        <f>stg_follow_kit_sige!B9</f>
+        <v>[com].[stg_follow_kit_sige]</v>
       </c>
       <c r="C5" s="21" t="str">
+        <f>stg_follow_kit_sige!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D5" s="22" t="str">
         <f>stg_follow_kit_sige!B10</f>
         <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\stg_follow.dtsx</v>
       </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="14" t="str">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="16" t="str">
+        <f>ods_follow!B9</f>
+        <v>[dbo].[ods_follow]</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>ods_follow!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D6" s="22" t="str">
         <f>ods_follow!B10</f>
         <v>N:\Migracao\Relatorio Follow LN\Relatorio Follow\ods_follow.dtsx</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="17"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="16"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="16"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="17"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="16"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="17"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="16"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1545,7 +1581,7 @@
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1735,7 +1771,7 @@
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2106,16 +2142,14 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2255,16 +2289,14 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2295,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
